--- a/Prototypes/SCUM/CropCoeff.xlsx
+++ b/Prototypes/SCUM/CropCoeff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
   <si>
     <t>Barley (Spring)</t>
   </si>
@@ -341,6 +341,27 @@
   <si>
     <t>Rape</t>
   </si>
+  <si>
+    <t>Potatoes (Short)</t>
+  </si>
+  <si>
+    <t>Potatoes (Medium)</t>
+  </si>
+  <si>
+    <t>Potatoes (Long)</t>
+  </si>
+  <si>
+    <t>Green_Beans</t>
+  </si>
+  <si>
+    <t>Dried_Beans</t>
+  </si>
+  <si>
+    <t>Green_Peas</t>
+  </si>
+  <si>
+    <t>Dried_Peas</t>
+  </si>
 </sst>
 </file>
 
@@ -429,14 +450,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4905,23 +4926,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="203519104"/>
-        <c:axId val="203520640"/>
+        <c:axId val="133045632"/>
+        <c:axId val="133076096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203519104"/>
+        <c:axId val="133045632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203520640"/>
+        <c:crossAx val="133076096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203520640"/>
+        <c:axId val="133076096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,20 +4950,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203519104"/>
+        <c:crossAx val="133045632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5347,18 +5367,18 @@
       <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AJ1" s="1">
         <v>2E-3</v>
       </c>
@@ -5435,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <f>X3-C3</f>
+        <f t="shared" ref="B3:B34" si="0">X3-C3</f>
         <v>652</v>
       </c>
       <c r="C3" s="5">
@@ -5474,7 +5494,7 @@
       <c r="M3">
         <v>540</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>1</v>
       </c>
       <c r="O3" s="5">
@@ -5519,7 +5539,7 @@
         <v>166.99076709098983</v>
       </c>
       <c r="AC3" s="5">
-        <f>(AA3-AB3)*(H3)</f>
+        <f t="shared" ref="AC3:AC34" si="1">(AA3-AB3)*(H3)</f>
         <v>691.34177575669787</v>
       </c>
       <c r="AD3" s="5">
@@ -5547,39 +5567,39 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AK3:AT18" si="0">IF(AL$2&lt;$J3,ROUND(1*EXP(-$AJ$1*(1500/$J3)*AL$2),3),0)</f>
+        <f t="shared" ref="AK3:AT18" si="2">IF(AL$2&lt;$J3,ROUND(1*EXP(-$AJ$1*(1500/$J3)*AL$2),3),0)</f>
         <v>0.40699999999999997</v>
       </c>
       <c r="AM3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="AN3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AO3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.105</v>
       </c>
       <c r="AP3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AQ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5588,15 +5608,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <f>X4-C4</f>
+        <f t="shared" si="0"/>
         <v>452</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C52" si="1">AG4</f>
+        <f t="shared" ref="C4:C52" si="3">AG4</f>
         <v>1648</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D52" si="2">Y4-X4</f>
+        <f t="shared" ref="D4:D52" si="4">Y4-X4</f>
         <v>1500</v>
       </c>
       <c r="E4">
@@ -5612,7 +5632,7 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f t="shared" ref="I4:I52" si="3">CONCATENATE(AJ4,",",AK4,",",AL4,",",AM4,",",AN4,",",AO4,",",AP4,",",AQ4,",",AR4,",",AS4,",",AT4)</f>
+        <f t="shared" ref="I4:I52" si="5">CONCATENATE(AJ4,",",AK4,",",AL4,",",AM4,",",AN4,",",AO4,",",AP4,",",AQ4,",",AR4,",",AS4,",",AT4)</f>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J4">
@@ -5627,15 +5647,15 @@
       <c r="M4">
         <v>900</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>0.75</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O52" si="4">Y4*0.5</f>
+        <f t="shared" ref="O4:O52" si="6">Y4*0.5</f>
         <v>1800</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P52" si="5">O4*0.2</f>
+        <f t="shared" ref="P4:P52" si="7">O4*0.2</f>
         <v>360</v>
       </c>
       <c r="Q4">
@@ -5660,79 +5680,79 @@
         <v>3600</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" ref="Z4:Z52" si="6">(G4*F4)/H4/(1-K4)</f>
+        <f t="shared" ref="Z4:Z52" si="8">(G4*F4)/H4/(1-K4)</f>
         <v>2358.666666666667</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" ref="AA4:AA52" si="7">N4*1/(1+EXP(-(Y4-O4)/P4))</f>
+        <f t="shared" ref="AA4:AA52" si="9">N4*1/(1+EXP(-(Y4-O4)/P4))</f>
         <v>0.7449803618067864</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" ref="AB4:AB52" si="8">AA4*K4</f>
+        <f t="shared" ref="AB4:AB52" si="10">AA4*K4</f>
         <v>7.4498036180678642E-2</v>
       </c>
       <c r="AC4" s="5">
-        <f>(AA4-AB4)*(H4)</f>
+        <f t="shared" si="1"/>
         <v>0.33524116281305388</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" ref="AD4:AD52" si="9">AA4-AC4-AB4</f>
+        <f t="shared" ref="AD4:AD52" si="11">AA4-AC4-AB4</f>
         <v>0.33524116281305388</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" ref="AE4:AE52" si="10">AD4*0.2</f>
+        <f t="shared" ref="AE4:AE52" si="12">AD4*0.2</f>
         <v>6.7048232562610777E-2</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" ref="AF4:AF52" si="11">(AD4-AE4)*(1+K4)</f>
+        <f t="shared" ref="AF4:AF52" si="13">(AD4-AE4)*(1+K4)</f>
         <v>0.29501222327548743</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" ref="AG4:AG52" si="12">ROUND(LN(1/(AF4/AA4)-1)*P4*-1+O4,0)</f>
+        <f t="shared" ref="AG4:AG52" si="14">ROUND(LN(1/(AF4/AA4)-1)*P4*-1+O4,0)</f>
         <v>1648</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AT35" si="13">IF(AJ$2&lt;$J4,ROUND(1*EXP(-$AJ$1*(1500/$J4)*AJ$2),3),0)</f>
+        <f t="shared" ref="AJ4:AT35" si="15">IF(AJ$2&lt;$J4,ROUND(1*EXP(-$AJ$1*(1500/$J4)*AJ$2),3),0)</f>
         <v>1</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.122</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -5741,15 +5761,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <f>X5-C5</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1785</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1650</v>
       </c>
       <c r="E5">
@@ -5765,7 +5785,7 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J5">
@@ -5780,15 +5800,15 @@
       <c r="M5">
         <v>960</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>0.85</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1950</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="Q5">
@@ -5813,79 +5833,79 @@
         <v>3900</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2571.333333333333</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.8443110767143579</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.4431107671435801E-2</v>
       </c>
       <c r="AC5" s="5">
-        <f>(AA5-AB5)*(H5)</f>
+        <f t="shared" si="1"/>
         <v>0.37993998452146105</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37993998452146105</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.5987996904292213E-2</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.33434718637888577</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1785</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.122</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -5894,15 +5914,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <f>X6-C6</f>
+        <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1923</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1800</v>
       </c>
       <c r="E6">
@@ -5918,7 +5938,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J6">
@@ -5933,15 +5953,15 @@
       <c r="M6">
         <v>1050</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>0.92</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="Q6">
@@ -5966,79 +5986,79 @@
         <v>4200</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2610</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91384257714965811</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.1384257714965819E-2</v>
       </c>
       <c r="AC6" s="5">
-        <f>(AA6-AB6)*(H6)</f>
+        <f t="shared" si="1"/>
         <v>0.41122915971734614</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.41122915971734619</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.2245831943469239E-2</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.36188166055126469</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1923</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.122</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6047,15 +6067,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <f>X7-C7</f>
+        <f t="shared" si="0"/>
         <v>561</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>939</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E7">
@@ -6071,7 +6091,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.638,0.407,0.259,0.165,0.105,0.067,0,0,0,0</v>
       </c>
       <c r="J7">
@@ -6086,15 +6106,15 @@
       <c r="M7">
         <v>540</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>1</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q7">
@@ -6119,79 +6139,79 @@
         <v>1800</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1288.8888888888887</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC7" s="5">
-        <f>(AA7-AB7)*(H7)</f>
+        <f t="shared" si="1"/>
         <v>0.26819293025044316</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.62578350391770066</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12515670078354013</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.55068948344757662</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>939</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63800000000000001</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.105</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6200,15 +6220,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <f>X8-C8</f>
+        <f t="shared" si="0"/>
         <v>854</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1546</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E8">
@@ -6224,7 +6244,7 @@
         <v>0.32</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J8">
@@ -6239,15 +6259,15 @@
       <c r="M8">
         <v>540</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>1</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q8">
@@ -6272,79 +6292,79 @@
         <v>3000</v>
       </c>
       <c r="Z8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2416.6666666666665</v>
       </c>
       <c r="AA8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC8" s="5">
-        <f>(AA8-AB8)*(H8)</f>
+        <f t="shared" si="1"/>
         <v>0.28607245893380601</v>
       </c>
       <c r="AD8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.60790397523433781</v>
       </c>
       <c r="AE8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12158079504686757</v>
       </c>
       <c r="AF8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.53495549820621724</v>
       </c>
       <c r="AG8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1546</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.122</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6353,15 +6373,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <f>X9-C9</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>848</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E9">
@@ -6377,7 +6397,7 @@
         <v>0.46</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.638,0.407,0.259,0.165,0.105,0.067,0,0,0,0</v>
       </c>
       <c r="J9">
@@ -6392,15 +6412,15 @@
       <c r="M9">
         <v>540</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>1</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q9">
@@ -6425,79 +6445,79 @@
         <v>1800</v>
       </c>
       <c r="Z9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1681.159420289855</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC9" s="5">
-        <f>(AA9-AB9)*(H9)</f>
+        <f t="shared" si="1"/>
         <v>0.41122915971734614</v>
       </c>
       <c r="AD9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.48274727445079768</v>
       </c>
       <c r="AE9" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.6549454890159536E-2</v>
       </c>
       <c r="AF9" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.424817601516702</v>
       </c>
       <c r="AG9" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>848</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63800000000000001</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.105</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6506,15 +6526,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <f>X10-C10</f>
+        <f t="shared" si="0"/>
         <v>939</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1461</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E10">
@@ -6530,7 +6550,7 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J10">
@@ -6545,15 +6565,15 @@
       <c r="M10">
         <v>540</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>1</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q10">
@@ -6578,79 +6598,79 @@
         <v>3000</v>
       </c>
       <c r="Z10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2593.4959349593496</v>
       </c>
       <c r="AA10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC10" s="5">
-        <f>(AA10-AB10)*(H10)</f>
+        <f t="shared" si="1"/>
         <v>0.36653033800893897</v>
       </c>
       <c r="AD10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.52744609615920479</v>
       </c>
       <c r="AE10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10548921923184096</v>
       </c>
       <c r="AF10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.46415256462010024</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1461</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.122</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6659,15 +6679,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="5">
-        <f>X11-C11</f>
+        <f t="shared" si="0"/>
         <v>361</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1739</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E11">
@@ -6683,7 +6703,7 @@
         <v>0.13</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J11">
@@ -6698,15 +6718,15 @@
       <c r="M11">
         <v>450</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>0.8</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q11">
@@ -6731,79 +6751,79 @@
         <v>3000</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>752.13675213675208</v>
       </c>
       <c r="AA11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC11" s="5">
-        <f>(AA11-AB11)*(H11)</f>
+        <f t="shared" si="1"/>
         <v>9.2973549153486948E-2</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.622207598181028</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1244415196362056</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5475426863993047</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1739</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6812,15 +6832,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="5">
-        <f>X12-C12</f>
+        <f t="shared" si="0"/>
         <v>436</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1664</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E12">
@@ -6836,7 +6856,7 @@
         <v>0.2</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J12">
@@ -6851,15 +6871,15 @@
       <c r="M12">
         <v>450</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>0.8</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q12">
@@ -6884,79 +6904,79 @@
         <v>3000</v>
       </c>
       <c r="Z12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>733.33333333333337</v>
       </c>
       <c r="AA12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC12" s="5">
-        <f>(AA12-AB12)*(H12)</f>
+        <f t="shared" si="1"/>
         <v>0.143036229466903</v>
       </c>
       <c r="AD12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.57214491786761201</v>
       </c>
       <c r="AE12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.11442898357352241</v>
       </c>
       <c r="AF12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.50348752772349858</v>
       </c>
       <c r="AG12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1664</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6965,15 +6985,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <f>X13-C13</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1470</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E13">
@@ -6989,7 +7009,7 @@
         <v>0.4</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J13">
@@ -7004,15 +7024,15 @@
       <c r="M13">
         <v>450</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>0.8</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q13">
@@ -7037,79 +7057,79 @@
         <v>3000</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>833.33333333333326</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC13" s="5">
-        <f>(AA13-AB13)*(H13)</f>
+        <f t="shared" si="1"/>
         <v>0.28607245893380601</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.42910868840070909</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.5821737680141827E-2</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.37761564579262402</v>
       </c>
       <c r="AG13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1470</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7118,15 +7138,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <f>X14-C14</f>
+        <f t="shared" si="0"/>
         <v>831</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1269</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E14">
@@ -7142,7 +7162,7 @@
         <v>0.6</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J14">
@@ -7157,15 +7177,15 @@
       <c r="M14">
         <v>360</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>0.8</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q14">
@@ -7190,79 +7210,79 @@
         <v>3000</v>
       </c>
       <c r="Z14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="AA14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC14" s="5">
-        <f>(AA14-AB14)*(H14)</f>
+        <f t="shared" si="1"/>
         <v>0.42910868840070898</v>
       </c>
       <c r="AD14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28607245893380606</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.7214491786761218E-2</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.25174376386174935</v>
       </c>
       <c r="AG14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1269</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7271,15 +7291,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="5">
-        <f>X15-C15</f>
+        <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E15">
@@ -7295,7 +7315,7 @@
         <v>0.75</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J15">
@@ -7310,15 +7330,15 @@
       <c r="M15">
         <v>360</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>0.8</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q15">
@@ -7343,79 +7363,79 @@
         <v>3000</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>829.62962962962956</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC15" s="5">
-        <f>(AA15-AB15)*(H15)</f>
+        <f t="shared" si="1"/>
         <v>0.53638586050088621</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.17879528683362883</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.5759057366725765E-2</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.15733985241359338</v>
       </c>
       <c r="AG15" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1080</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7424,15 +7444,15 @@
         <v>13</v>
       </c>
       <c r="B16" s="5">
-        <f>X16-C16</f>
+        <f t="shared" si="0"/>
         <v>534</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1566</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E16">
@@ -7448,7 +7468,7 @@
         <v>0.3</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J16">
@@ -7463,15 +7483,15 @@
       <c r="M16">
         <v>450</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>0.8</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q16">
@@ -7496,79 +7516,79 @@
         <v>3000</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC16" s="5">
-        <f>(AA16-AB16)*(H16)</f>
+        <f t="shared" si="1"/>
         <v>0.21455434420035449</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.50062680313416053</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10012536062683211</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.44055158675806133</v>
       </c>
       <c r="AG16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1566</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7577,15 +7597,15 @@
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <f>X17-C17</f>
+        <f t="shared" si="0"/>
         <v>678</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1422</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E17">
@@ -7601,7 +7621,7 @@
         <v>0.45</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J17">
@@ -7616,15 +7636,15 @@
       <c r="M17">
         <v>450</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>0.8</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q17">
@@ -7649,79 +7669,79 @@
         <v>3000</v>
       </c>
       <c r="Z17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="AA17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC17" s="5">
-        <f>(AA17-AB17)*(H17)</f>
+        <f t="shared" si="1"/>
         <v>0.32183151630053175</v>
       </c>
       <c r="AD17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39334963103398329</v>
       </c>
       <c r="AE17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.8669926206796664E-2</v>
       </c>
       <c r="AF17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34614767530990537</v>
       </c>
       <c r="AG17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1422</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7730,15 +7750,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <f>X18-C18</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1299</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E18">
@@ -7754,7 +7774,7 @@
         <v>0.8</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J18">
@@ -7769,15 +7789,15 @@
       <c r="M18">
         <v>360</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>0.8</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1950</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="Q18">
@@ -7802,79 +7822,79 @@
         <v>3900</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>347.22222222222223</v>
       </c>
       <c r="AA18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC18" s="5">
-        <f>(AA18-AB18)*(H18)</f>
+        <f t="shared" si="1"/>
         <v>0.57214491786761201</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14303622946690303</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8607245893380609E-2</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12587188193087467</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1299</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7883,15 +7903,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <f>X19-C19</f>
+        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1150</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="E19">
@@ -7907,7 +7927,7 @@
         <v>0.7</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J19">
@@ -7922,15 +7942,15 @@
       <c r="M19">
         <v>360</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>0.8</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q19">
@@ -7955,79 +7975,79 @@
         <v>3000</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>174.60317460317461</v>
       </c>
       <c r="AA19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC19" s="5">
-        <f>(AA19-AB19)*(H19)</f>
+        <f t="shared" si="1"/>
         <v>0.50062680313416041</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21455434420035463</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.2910868840070927E-2</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.18880782289631209</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1150</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8036,15 +8056,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <f>X20-C20</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>782</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E20">
@@ -8060,7 +8080,7 @@
         <v>0.45</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J20">
@@ -8075,15 +8095,15 @@
       <c r="M20">
         <v>690</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>0.8</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q20">
@@ -8108,79 +8128,79 @@
         <v>1650</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>414.81481481481478</v>
       </c>
       <c r="AA20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC20" s="5">
-        <f>(AA20-AB20)*(H20)</f>
+        <f t="shared" si="1"/>
         <v>0.32183151630053175</v>
       </c>
       <c r="AD20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39334963103398329</v>
       </c>
       <c r="AE20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.8669926206796664E-2</v>
       </c>
       <c r="AF20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34614767530990537</v>
       </c>
       <c r="AG20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>782</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8189,15 +8209,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <f>X21-C21</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>755</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E21">
@@ -8213,7 +8233,7 @@
         <v>0.5</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J21">
@@ -8228,15 +8248,15 @@
       <c r="M21">
         <v>690</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>1</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q21">
@@ -8261,79 +8281,79 @@
         <v>1650</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>668.88888888888891</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC21" s="5">
-        <f>(AA21-AB21)*(H21)</f>
+        <f t="shared" si="1"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AD21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814387E-2</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.39334963103398329</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>755</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8342,15 +8362,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <f>X22-C22</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>755</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E22">
@@ -8366,7 +8386,7 @@
         <v>0.5</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J22">
@@ -8381,15 +8401,15 @@
       <c r="M22">
         <v>690</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>1</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q22">
@@ -8414,79 +8434,79 @@
         <v>1650</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>668.88888888888891</v>
       </c>
       <c r="AA22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC22" s="5">
-        <f>(AA22-AB22)*(H22)</f>
+        <f t="shared" si="1"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AD22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814387E-2</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.39334963103398329</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>755</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8495,15 +8515,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <f>X23-C23</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>782</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E23">
@@ -8519,7 +8539,7 @@
         <v>0.45</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J23">
@@ -8534,15 +8554,15 @@
       <c r="M23">
         <v>690</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>1</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q23">
@@ -8567,79 +8587,79 @@
         <v>1650</v>
       </c>
       <c r="Z23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>414.81481481481478</v>
       </c>
       <c r="AA23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC23" s="5">
-        <f>(AA23-AB23)*(H23)</f>
+        <f t="shared" si="1"/>
         <v>0.40228939537566472</v>
       </c>
       <c r="AD23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.49168703879247899</v>
       </c>
       <c r="AE23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.833740775849581E-2</v>
       </c>
       <c r="AF23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.43268459413738153</v>
       </c>
       <c r="AG23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>782</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8648,15 +8668,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <f>X24-C24</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>755</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E24">
@@ -8672,7 +8692,7 @@
         <v>0.5</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J24">
@@ -8687,15 +8707,15 @@
       <c r="M24">
         <v>690</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>1</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q24">
@@ -8720,79 +8740,79 @@
         <v>1650</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>668.88888888888891</v>
       </c>
       <c r="AA24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC24" s="5">
-        <f>(AA24-AB24)*(H24)</f>
+        <f t="shared" si="1"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AD24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AE24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814387E-2</v>
       </c>
       <c r="AF24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.39334963103398329</v>
       </c>
       <c r="AG24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>755</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8801,15 +8821,15 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <f>X25-C25</f>
+        <f t="shared" si="0"/>
         <v>1234</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>716</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E25">
@@ -8825,7 +8845,7 @@
         <v>0.89</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J25">
@@ -8840,15 +8860,15 @@
       <c r="M25">
         <v>690</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>1</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q25">
@@ -8873,79 +8893,79 @@
         <v>2700</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1435.7053682896378</v>
       </c>
       <c r="AA25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC25" s="5">
-        <f>(AA25-AB25)*(H25)</f>
+        <f t="shared" si="1"/>
         <v>0.79563902640964801</v>
       </c>
       <c r="AD25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.8337407758495726E-2</v>
       </c>
       <c r="AE25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9667481551699145E-2</v>
       </c>
       <c r="AF25" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6536918827476245E-2</v>
       </c>
       <c r="AG25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>716</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8954,15 +8974,15 @@
         <v>23</v>
       </c>
       <c r="B26" s="5">
-        <f>X26-C26</f>
+        <f t="shared" si="0"/>
         <v>1060</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>590</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E26">
@@ -8978,7 +8998,7 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J26">
@@ -8993,15 +9013,15 @@
       <c r="M26">
         <v>690</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>1</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1125</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="Q26">
@@ -9026,79 +9046,79 @@
         <v>2250</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1516.7351001617519</v>
       </c>
       <c r="AA26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC26" s="5">
-        <f>(AA26-AB26)*(H26)</f>
+        <f t="shared" si="1"/>
         <v>0.79832095571215245</v>
       </c>
       <c r="AD26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.5655478455991289E-2</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9131095691198259E-2</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.4176821041272346E-2</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>590</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9107,15 +9127,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="5">
-        <f>X27-C27</f>
+        <f t="shared" si="0"/>
         <v>1312</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>638</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E27">
@@ -9131,7 +9151,7 @@
         <v>0.90399999999999991</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J27">
@@ -9146,15 +9166,15 @@
       <c r="M27">
         <v>690</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>1</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1275</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>255</v>
       </c>
       <c r="Q27">
@@ -9179,79 +9199,79 @@
         <v>2550</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1730.5801376597838</v>
       </c>
       <c r="AA27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC27" s="5">
-        <f>(AA27-AB27)*(H27)</f>
+        <f t="shared" si="1"/>
         <v>0.80815469648800187</v>
       </c>
       <c r="AD27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.5821737680141869E-2</v>
       </c>
       <c r="AE27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7164347536028374E-2</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.5523129158524854E-2</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>638</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9260,15 +9280,15 @@
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <f>X28-C28</f>
+        <f t="shared" si="0"/>
         <v>1560</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E28">
@@ -9284,7 +9304,7 @@
         <v>0.91099999999999992</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J28">
@@ -9299,15 +9319,15 @@
       <c r="M28">
         <v>690</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>1</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1425</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>285</v>
       </c>
       <c r="Q28">
@@ -9332,79 +9352,79 @@
         <v>2850</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1905.1103793145508</v>
       </c>
       <c r="AA28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC28" s="5">
-        <f>(AA28-AB28)*(H28)</f>
+        <f t="shared" si="1"/>
         <v>0.81441253152717885</v>
       </c>
       <c r="AD28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.9563902640964884E-2</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5912780528192977E-2</v>
       </c>
       <c r="AF28" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.0016234324049104E-2</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>690</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9413,15 +9433,15 @@
         <v>26</v>
       </c>
       <c r="B29" s="5">
-        <f>X29-C29</f>
+        <f t="shared" si="0"/>
         <v>1076</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>874</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E29">
@@ -9437,7 +9457,7 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J29">
@@ -9452,15 +9472,15 @@
       <c r="M29">
         <v>690</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>0.95</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q29">
@@ -9485,79 +9505,79 @@
         <v>2700</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1049.7614178595775</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.9436417916219294</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.4364179162192946E-2</v>
       </c>
       <c r="AC29" s="5">
-        <f>(AA29-AB29)*(H29)</f>
+        <f t="shared" si="1"/>
         <v>0.6921612541546851</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15711635830505136</v>
       </c>
       <c r="AE29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.142327166101027E-2</v>
       </c>
       <c r="AF29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.1382623953084452</v>
       </c>
       <c r="AG29" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>874</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9566,15 +9586,15 @@
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <f>X30-C30</f>
+        <f t="shared" si="0"/>
         <v>2045</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>955</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E30">
@@ -9590,7 +9610,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J30">
@@ -9605,15 +9625,15 @@
       <c r="M30">
         <v>690</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>0.9</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1875</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
       <c r="Q30">
@@ -9638,79 +9658,79 @@
         <v>3750</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1037.037037037037</v>
       </c>
       <c r="AA30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.89397643416814376</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.9397643416814387E-2</v>
       </c>
       <c r="AC30" s="5">
-        <f>(AA30-AB30)*(H30)</f>
+        <f t="shared" si="1"/>
         <v>0.7241209116761963</v>
       </c>
       <c r="AD30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.0457879075133076E-2</v>
       </c>
       <c r="AE30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6091575815026616E-2</v>
       </c>
       <c r="AF30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.0802933586117112E-2</v>
       </c>
       <c r="AG30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>955</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9719,15 +9739,15 @@
         <v>28</v>
       </c>
       <c r="B31" s="5">
-        <f>X31-C31</f>
+        <f t="shared" si="0"/>
         <v>1461</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>489</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E31">
@@ -9743,7 +9763,7 @@
         <v>0.95</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J31">
@@ -9758,15 +9778,15 @@
       <c r="M31">
         <v>690</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>0.95</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q31">
@@ -9791,79 +9811,79 @@
         <v>2700</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>874.85380116959061</v>
       </c>
       <c r="AA31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.9436417916219294</v>
       </c>
       <c r="AB31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.4364179162192946E-2</v>
       </c>
       <c r="AC31" s="5">
-        <f>(AA31-AB31)*(H31)</f>
+        <f t="shared" si="1"/>
         <v>0.80681373183674954</v>
       </c>
       <c r="AD31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2463880622986921E-2</v>
       </c>
       <c r="AE31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.492776124597385E-3</v>
       </c>
       <c r="AF31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.7368214948228499E-2</v>
       </c>
       <c r="AG31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>489</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9872,15 +9892,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="5">
-        <f>X32-C32</f>
+        <f t="shared" si="0"/>
         <v>1159</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2141</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E32">
@@ -9896,7 +9916,7 @@
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.607,0.368,0.223,0.135,0.082,0,0,0,0,0</v>
       </c>
       <c r="J32">
@@ -9911,15 +9931,15 @@
       <c r="M32">
         <v>750</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <v>0.8</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="Q32">
@@ -9944,79 +9964,79 @@
         <v>3600</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>629.62962962962968</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC32" s="5">
-        <f>(AA32-AB32)*(H32)</f>
+        <f t="shared" si="1"/>
         <v>6.4366303260106339E-2</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.6508148440744087</v>
       </c>
       <c r="AE32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13016296881488174</v>
       </c>
       <c r="AF32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.57271706278547974</v>
       </c>
       <c r="AG32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2141</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.60699999999999998</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.36799999999999999</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.223</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10025,15 +10045,15 @@
         <v>30</v>
       </c>
       <c r="B33" s="5">
-        <f>X33-C33</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1590</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
       <c r="E33">
@@ -10049,7 +10069,7 @@
         <v>0.10499999999999998</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J33">
@@ -10064,15 +10084,15 @@
       <c r="M33">
         <v>540</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q33">
@@ -10097,79 +10117,79 @@
         <v>2700</v>
       </c>
       <c r="Z33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1349.2063492063494</v>
       </c>
       <c r="AA33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC33" s="5">
-        <f>(AA33-AB33)*(H33)</f>
+        <f t="shared" si="1"/>
         <v>9.3867525587655085E-2</v>
       </c>
       <c r="AD33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.80010890858048866</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16002178171609774</v>
       </c>
       <c r="AF33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.7040958395508301</v>
       </c>
       <c r="AG33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1590</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10178,15 +10198,15 @@
         <v>31</v>
       </c>
       <c r="B34" s="5">
-        <f>X34-C34</f>
+        <f t="shared" si="0"/>
         <v>551</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1249</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E34">
@@ -10202,7 +10222,7 @@
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.607,0.368,0.223,0.135,0.082,0,0,0,0,0</v>
       </c>
       <c r="J34">
@@ -10217,15 +10237,15 @@
       <c r="M34">
         <v>300</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <v>1</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1050</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="Q34">
@@ -10250,79 +10270,79 @@
         <v>2100</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>629.62962962962968</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC34" s="5">
-        <f>(AA34-AB34)*(H34)</f>
+        <f t="shared" si="1"/>
         <v>8.0457879075132924E-2</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.81351855509301085</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16270371101860218</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.71589632848184959</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1249</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.60699999999999998</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.36799999999999999</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.223</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10331,15 +10351,15 @@
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <f>X35-C35</f>
+        <f t="shared" ref="B35:B66" si="16">X35-C35</f>
         <v>563</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1237</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E35">
@@ -10355,7 +10375,7 @@
         <v>0.10499999999999998</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J35">
@@ -10370,15 +10390,15 @@
       <c r="M35">
         <v>300</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1050</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="Q35">
@@ -10403,79 +10423,79 @@
         <v>2100</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1349.2063492063494</v>
       </c>
       <c r="AA35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC35" s="5">
-        <f>(AA35-AB35)*(H35)</f>
+        <f t="shared" ref="AC35:AC66" si="17">(AA35-AB35)*(H35)</f>
         <v>9.3867525587655085E-2</v>
       </c>
       <c r="AD35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.80010890858048866</v>
       </c>
       <c r="AE35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16002178171609774</v>
       </c>
       <c r="AF35" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.7040958395508301</v>
       </c>
       <c r="AG35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1237</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10484,15 +10504,15 @@
         <v>33</v>
       </c>
       <c r="B36" s="5">
-        <f>X36-C36</f>
+        <f t="shared" si="16"/>
         <v>706</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>794</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E36">
@@ -10508,7 +10528,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.638,0.407,0.259,0.165,0.105,0.067,0,0,0,0</v>
       </c>
       <c r="J36">
@@ -10523,15 +10543,15 @@
       <c r="M36">
         <v>540</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>0.75</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q36">
@@ -10556,79 +10576,79 @@
         <v>1800</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2525.2525252525252</v>
       </c>
       <c r="AA36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7449803618067864</v>
       </c>
       <c r="AB36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.4498036180678642E-2</v>
       </c>
       <c r="AC36" s="5">
-        <f>(AA36-AB36)*(H36)</f>
+        <f t="shared" si="17"/>
         <v>0.3687652790943593</v>
       </c>
       <c r="AD36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30171704653174847</v>
       </c>
       <c r="AE36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.0343409306349696E-2</v>
       </c>
       <c r="AF36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.26551100094793867</v>
       </c>
       <c r="AG36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>794</v>
       </c>
       <c r="AJ36">
-        <f t="shared" ref="AJ36:AT52" si="14">IF(AJ$2&lt;$J36,ROUND(1*EXP(-$AJ$1*(1500/$J36)*AJ$2),3),0)</f>
+        <f t="shared" ref="AJ36:AT52" si="18">IF(AJ$2&lt;$J36,ROUND(1*EXP(-$AJ$1*(1500/$J36)*AJ$2),3),0)</f>
         <v>1</v>
       </c>
       <c r="AK36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63800000000000001</v>
       </c>
       <c r="AL36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AM36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="AN36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.105</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AQ36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -10637,15 +10657,15 @@
         <v>34</v>
       </c>
       <c r="B37" s="5">
-        <f>X37-C37</f>
+        <f t="shared" si="16"/>
         <v>1501</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>899</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E37">
@@ -10661,7 +10681,7 @@
         <v>0.8</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J37">
@@ -10676,15 +10696,15 @@
       <c r="M37">
         <v>600</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <v>0.94</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q37">
@@ -10709,79 +10729,79 @@
         <v>2700</v>
       </c>
       <c r="Z37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>694.44444444444446</v>
       </c>
       <c r="AA37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.93370872013117223</v>
       </c>
       <c r="AB37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.3370872013117223E-2</v>
       </c>
       <c r="AC37" s="5">
-        <f>(AA37-AB37)*(H37)</f>
+        <f t="shared" si="17"/>
         <v>0.6722702784944441</v>
       </c>
       <c r="AD37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.16806756962361091</v>
       </c>
       <c r="AE37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3613513924722185E-2</v>
       </c>
       <c r="AF37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14789946126877762</v>
       </c>
       <c r="AG37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>899</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -10790,15 +10810,15 @@
         <v>35</v>
       </c>
       <c r="B38" s="5">
-        <f>X38-C38</f>
+        <f t="shared" si="16"/>
         <v>1051</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>899</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E38">
@@ -10814,7 +10834,7 @@
         <v>0.8</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.325,0.105,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="J38">
@@ -10829,15 +10849,15 @@
       <c r="M38">
         <v>780</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <v>0.8</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q38">
@@ -10862,79 +10882,79 @@
         <v>2700</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1069.4444444444443</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79464571926057226</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9464571926057229E-2</v>
       </c>
       <c r="AC38" s="5">
-        <f>(AA38-AB38)*(H38)</f>
+        <f t="shared" si="17"/>
         <v>0.57214491786761201</v>
       </c>
       <c r="AD38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14303622946690303</v>
       </c>
       <c r="AE38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8607245893380609E-2</v>
       </c>
       <c r="AF38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12587188193087467</v>
       </c>
       <c r="AG38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>899</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.105</v>
       </c>
       <c r="AM38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -10943,15 +10963,15 @@
         <v>36</v>
       </c>
       <c r="B39" s="5">
-        <f>X39-C39</f>
+        <f t="shared" si="16"/>
         <v>714</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1236</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E39">
@@ -10967,7 +10987,7 @@
         <v>0.5</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.407,0.165,0.067,0,0,0,0,0,0,0</v>
       </c>
       <c r="J39">
@@ -10982,15 +11002,15 @@
       <c r="M39">
         <v>690</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q39">
@@ -11015,79 +11035,79 @@
         <v>2700</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC39" s="5">
-        <f>(AA39-AB39)*(H39)</f>
+        <f t="shared" si="17"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AD39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.44698821708407188</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814387E-2</v>
       </c>
       <c r="AF39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.39334963103398329</v>
       </c>
       <c r="AG39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1236</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AM39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11096,15 +11116,15 @@
         <v>37</v>
       </c>
       <c r="B40" s="5">
-        <f>X40-C40</f>
+        <f t="shared" si="16"/>
         <v>659</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1141</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40">
@@ -11120,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.638,0.407,0.259,0.165,0.105,0.067,0,0,0,0</v>
       </c>
       <c r="J40">
@@ -11135,15 +11155,15 @@
       <c r="M40">
         <v>540</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q40">
@@ -11168,79 +11188,79 @@
         <v>1800</v>
       </c>
       <c r="Z40" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC40" s="5">
-        <f>(AA40-AB40)*(H40)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89397643416814376</v>
       </c>
       <c r="AE40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17879528683362877</v>
       </c>
       <c r="AF40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.78669926206796659</v>
       </c>
       <c r="AG40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1141</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63800000000000001</v>
       </c>
       <c r="AL40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AM40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="AN40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.105</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AQ40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11249,15 +11269,15 @@
         <v>38</v>
       </c>
       <c r="B41" s="5">
-        <f>X41-C41</f>
+        <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1046</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41">
@@ -11273,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J41">
@@ -11288,15 +11308,15 @@
       <c r="M41">
         <v>690</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q41">
@@ -11321,79 +11341,79 @@
         <v>1650</v>
       </c>
       <c r="Z41" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC41" s="5">
-        <f>(AA41-AB41)*(H41)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89397643416814376</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17879528683362877</v>
       </c>
       <c r="AF41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.78669926206796659</v>
       </c>
       <c r="AG41" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1046</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11402,15 +11422,15 @@
         <v>39</v>
       </c>
       <c r="B42" s="5">
-        <f>X42-C42</f>
+        <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1046</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E42">
@@ -11426,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J42">
@@ -11441,15 +11461,15 @@
       <c r="M42">
         <v>690</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q42">
@@ -11474,79 +11494,79 @@
         <v>1650</v>
       </c>
       <c r="Z42" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC42" s="5">
-        <f>(AA42-AB42)*(H42)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89397643416814376</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17879528683362877</v>
       </c>
       <c r="AF42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.78669926206796659</v>
       </c>
       <c r="AG42" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1046</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11555,15 +11575,15 @@
         <v>40</v>
       </c>
       <c r="B43" s="5">
-        <f>X43-C43</f>
+        <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1046</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E43">
@@ -11579,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J43">
@@ -11594,15 +11614,15 @@
       <c r="M43">
         <v>690</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="8">
         <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q43">
@@ -11627,79 +11647,79 @@
         <v>1650</v>
       </c>
       <c r="Z43" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC43" s="5">
-        <f>(AA43-AB43)*(H43)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89397643416814376</v>
       </c>
       <c r="AE43" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17879528683362877</v>
       </c>
       <c r="AF43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.78669926206796659</v>
       </c>
       <c r="AG43" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1046</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11708,15 +11728,15 @@
         <v>41</v>
       </c>
       <c r="B44" s="5">
-        <f>X44-C44</f>
+        <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1046</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E44">
@@ -11732,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.526,0.276,0.145,0.076,0,0,0,0,0,0</v>
       </c>
       <c r="J44">
@@ -11747,15 +11767,15 @@
       <c r="M44">
         <v>690</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="Q44">
@@ -11780,79 +11800,79 @@
         <v>1650</v>
       </c>
       <c r="Z44" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC44" s="5">
-        <f>(AA44-AB44)*(H44)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89397643416814376</v>
       </c>
       <c r="AE44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17879528683362877</v>
       </c>
       <c r="AF44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.78669926206796659</v>
       </c>
       <c r="AG44" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1046</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="AM44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11861,15 +11881,15 @@
         <v>42</v>
       </c>
       <c r="B45" s="5">
-        <f>X45-C45</f>
+        <f t="shared" si="16"/>
         <v>1598</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>652</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1350</v>
       </c>
       <c r="E45">
@@ -11885,7 +11905,7 @@
         <v>0.95</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J45">
@@ -11900,15 +11920,15 @@
       <c r="M45">
         <v>960</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <v>0.85</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="Q45">
@@ -11933,79 +11953,79 @@
         <v>3600</v>
       </c>
       <c r="Z45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2046.7836257309941</v>
       </c>
       <c r="AA45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.8443110767143579</v>
       </c>
       <c r="AB45" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.4431107671435801E-2</v>
       </c>
       <c r="AC45" s="5">
-        <f>(AA45-AB45)*(H45)</f>
+        <f t="shared" si="17"/>
         <v>0.72188597059077597</v>
       </c>
       <c r="AD45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.7993998452146127E-2</v>
       </c>
       <c r="AE45" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.5987996904292258E-3</v>
       </c>
       <c r="AF45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.3434718637888598E-2</v>
       </c>
       <c r="AG45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>652</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12014,15 +12034,15 @@
         <v>0</v>
       </c>
       <c r="B46" s="5">
-        <f>X46-C46</f>
+        <f t="shared" si="16"/>
         <v>1174</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>326</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E46">
@@ -12038,7 +12058,7 @@
         <v>0.95</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J46">
@@ -12053,15 +12073,15 @@
       <c r="M46">
         <v>540</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="7">
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q46">
@@ -12086,79 +12106,79 @@
         <v>1800</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>935.67251461988303</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC46" s="5">
-        <f>(AA46-AB46)*(H46)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE46" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12167,15 +12187,15 @@
         <v>43</v>
       </c>
       <c r="B47" s="5">
-        <f>X47-C47</f>
+        <f t="shared" si="16"/>
         <v>1174</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>326</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E47">
@@ -12191,7 +12211,7 @@
         <v>0.95</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J47">
@@ -12206,15 +12226,15 @@
       <c r="M47">
         <v>540</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="7">
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q47">
@@ -12239,79 +12259,79 @@
         <v>1800</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>935.67251461988303</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC47" s="5">
-        <f>(AA47-AB47)*(H47)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE47" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12320,15 +12340,15 @@
         <v>44</v>
       </c>
       <c r="B48" s="5">
-        <f>X48-C48</f>
+        <f t="shared" si="16"/>
         <v>1857</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>543</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E48">
@@ -12344,7 +12364,7 @@
         <v>0.95</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J48">
@@ -12359,15 +12379,15 @@
       <c r="M48">
         <v>540</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="7">
         <v>1</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q48">
@@ -12392,79 +12412,79 @@
         <v>3000</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1403.5087719298244</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC48" s="5">
-        <f>(AA48-AB48)*(H48)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE48" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG48" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>543</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12473,15 +12493,15 @@
         <v>45</v>
       </c>
       <c r="B49" s="5">
-        <f>X49-C49</f>
+        <f t="shared" si="16"/>
         <v>1174</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>326</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E49">
@@ -12497,7 +12517,7 @@
         <v>0.95</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J49">
@@ -12512,15 +12532,15 @@
       <c r="M49">
         <v>540</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
         <v>1</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q49">
@@ -12545,79 +12565,79 @@
         <v>1800</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>935.67251461988303</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC49" s="5">
-        <f>(AA49-AB49)*(H49)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE49" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG49" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12626,15 +12646,15 @@
         <v>46</v>
       </c>
       <c r="B50" s="5">
-        <f>X50-C50</f>
+        <f t="shared" si="16"/>
         <v>1857</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>543</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E50">
@@ -12650,7 +12670,7 @@
         <v>0.95</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J50">
@@ -12665,15 +12685,15 @@
       <c r="M50">
         <v>540</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="7">
         <v>1</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q50">
@@ -12698,79 +12718,79 @@
         <v>3000</v>
       </c>
       <c r="Z50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1403.5087719298244</v>
       </c>
       <c r="AA50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB50" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC50" s="5">
-        <f>(AA50-AB50)*(H50)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE50" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG50" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>543</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12779,15 +12799,15 @@
         <v>4</v>
       </c>
       <c r="B51" s="5">
-        <f>X51-C51</f>
+        <f t="shared" si="16"/>
         <v>1174</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>326</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E51">
@@ -12803,7 +12823,7 @@
         <v>0.95</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J51">
@@ -12818,15 +12838,15 @@
       <c r="M51">
         <v>540</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="7">
         <v>1</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q51">
@@ -12851,79 +12871,79 @@
         <v>1800</v>
       </c>
       <c r="Z51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>935.67251461988303</v>
       </c>
       <c r="AA51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB51" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC51" s="5">
-        <f>(AA51-AB51)*(H51)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE51" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG51" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -12932,15 +12952,15 @@
         <v>5</v>
       </c>
       <c r="B52" s="5">
-        <f>X52-C52</f>
+        <f t="shared" si="16"/>
         <v>1857</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>543</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E52">
@@ -12956,7 +12976,7 @@
         <v>0.95</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1,0.741,0.549,0.407,0.301,0.223,0.165,0.122,0.091,0.067,0.05</v>
       </c>
       <c r="J52">
@@ -12971,15 +12991,15 @@
       <c r="M52">
         <v>540</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="7">
         <v>1</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="Q52">
@@ -13004,79 +13024,79 @@
         <v>3000</v>
       </c>
       <c r="Z52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1403.5087719298244</v>
       </c>
       <c r="AA52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99330714907571527</v>
       </c>
       <c r="AB52" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC52" s="5">
-        <f>(AA52-AB52)*(H52)</f>
+        <f t="shared" si="17"/>
         <v>0.84927761245973654</v>
       </c>
       <c r="AD52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4698821708407194E-2</v>
       </c>
       <c r="AE52" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9397643416814394E-3</v>
       </c>
       <c r="AF52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9334963103398339E-2</v>
       </c>
       <c r="AG52" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>543</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="AL52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="AM52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AN52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.30099999999999999</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.223</v>
       </c>
       <c r="AP52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="AQ52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.122</v>
       </c>
       <c r="AR52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -13098,7 +13118,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13212,10 +13232,10 @@
       <c r="P2">
         <v>1800</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>0.96</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13268,10 +13288,10 @@
       <c r="P3">
         <v>3600</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>0.75</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13324,10 +13344,10 @@
       <c r="P4">
         <v>3900</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>0.85</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13380,10 +13400,10 @@
       <c r="P5">
         <v>4200</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>0.92</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13436,10 +13456,10 @@
       <c r="P6">
         <v>1800</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>0.96</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13492,10 +13512,10 @@
       <c r="P7">
         <v>3000</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>0.96</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13548,10 +13568,10 @@
       <c r="P8">
         <v>1800</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>0.96</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13604,10 +13624,10 @@
       <c r="P9">
         <v>3000</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>0.96</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13660,10 +13680,10 @@
       <c r="P10">
         <v>3000</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <v>0.8</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13716,10 +13736,10 @@
       <c r="P11">
         <v>3000</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>0.8</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13772,10 +13792,10 @@
       <c r="P12">
         <v>3000</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <v>0.8</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13828,10 +13848,10 @@
       <c r="P13">
         <v>3000</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>0.8</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13884,10 +13904,10 @@
       <c r="P14">
         <v>3000</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <v>0.8</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13940,10 +13960,10 @@
       <c r="P15">
         <v>3000</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>0.8</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13996,10 +14016,10 @@
       <c r="P16">
         <v>3000</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <v>0.8</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14052,10 +14072,10 @@
       <c r="P17">
         <v>3900</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>0.8</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14108,16 +14128,16 @@
       <c r="P18">
         <v>3000</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>0.8</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B19">
         <v>300</v>
@@ -14164,16 +14184,16 @@
       <c r="P19">
         <v>1650</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <v>0.8</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -14220,10 +14240,10 @@
       <c r="P20">
         <v>1650</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>0.96</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -14276,16 +14296,16 @@
       <c r="P21">
         <v>1650</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <v>0.96</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -14332,16 +14352,16 @@
       <c r="P22">
         <v>1650</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <v>0.96</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -14388,10 +14408,10 @@
       <c r="P23">
         <v>1650</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <v>0.96</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -14444,16 +14464,16 @@
       <c r="P24">
         <v>2700</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <v>0.96</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -14500,16 +14520,16 @@
       <c r="P25">
         <v>2250</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="7">
         <v>0.96</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -14556,16 +14576,16 @@
       <c r="P26">
         <v>2550</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <v>0.96</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -14612,10 +14632,10 @@
       <c r="P27">
         <v>2850</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <v>0.96</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14668,10 +14688,10 @@
       <c r="P28">
         <v>2700</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="7">
         <v>0.95</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="R28" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14724,10 +14744,10 @@
       <c r="P29">
         <v>3750</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <v>0.9</v>
       </c>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14780,10 +14800,10 @@
       <c r="P30">
         <v>2700</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <v>0.95</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="R30" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14836,10 +14856,10 @@
       <c r="P31">
         <v>3600</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="7">
         <v>0.8</v>
       </c>
-      <c r="R31" s="10" t="s">
+      <c r="R31" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -14892,10 +14912,10 @@
       <c r="P32">
         <v>2700</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="7">
         <v>0.96</v>
       </c>
-      <c r="R32" s="10" t="s">
+      <c r="R32" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14948,10 +14968,10 @@
       <c r="P33">
         <v>2100</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="7">
         <v>0.96</v>
       </c>
-      <c r="R33" s="10" t="s">
+      <c r="R33" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -15004,10 +15024,10 @@
       <c r="P34">
         <v>2100</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="7">
         <v>0.96</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="R34" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15060,10 +15080,10 @@
       <c r="P35">
         <v>1800</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="7">
         <v>0.75</v>
       </c>
-      <c r="R35" s="10" t="s">
+      <c r="R35" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15116,10 +15136,10 @@
       <c r="P36">
         <v>2700</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="7">
         <v>0.94</v>
       </c>
-      <c r="R36" s="10" t="s">
+      <c r="R36" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15172,10 +15192,10 @@
       <c r="P37">
         <v>2700</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="7">
         <v>0.8</v>
       </c>
-      <c r="R37" s="10" t="s">
+      <c r="R37" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15228,10 +15248,10 @@
       <c r="P38">
         <v>2700</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="7">
         <v>0.96</v>
       </c>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15284,10 +15304,10 @@
       <c r="P39">
         <v>1800</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="7">
         <v>0.96</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="R39" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15340,10 +15360,10 @@
       <c r="P40">
         <v>1650</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="7">
         <v>0.96</v>
       </c>
-      <c r="R40" s="10" t="s">
+      <c r="R40" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15396,10 +15416,10 @@
       <c r="P41">
         <v>1650</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="7">
         <v>0.96</v>
       </c>
-      <c r="R41" s="10" t="s">
+      <c r="R41" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15452,10 +15472,10 @@
       <c r="P42">
         <v>1650</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="7">
         <v>0.96</v>
       </c>
-      <c r="R42" s="10" t="s">
+      <c r="R42" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -15508,10 +15528,10 @@
       <c r="P43">
         <v>1650</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="7">
         <v>0.96</v>
       </c>
-      <c r="R43" s="10" t="s">
+      <c r="R43" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15564,10 +15584,10 @@
       <c r="P44">
         <v>3600</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="7">
         <v>0.85</v>
       </c>
-      <c r="R44" s="10" t="s">
+      <c r="R44" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15620,10 +15640,10 @@
       <c r="P45">
         <v>1800</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="7">
         <v>0.96</v>
       </c>
-      <c r="R45" s="10" t="s">
+      <c r="R45" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15676,10 +15696,10 @@
       <c r="P46">
         <v>1800</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="7">
         <v>0.96</v>
       </c>
-      <c r="R46" s="10" t="s">
+      <c r="R46" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15732,10 +15752,10 @@
       <c r="P47">
         <v>3000</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="7">
         <v>0.96</v>
       </c>
-      <c r="R47" s="10" t="s">
+      <c r="R47" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15788,10 +15808,10 @@
       <c r="P48">
         <v>1800</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="7">
         <v>0.96</v>
       </c>
-      <c r="R48" s="10" t="s">
+      <c r="R48" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15844,10 +15864,10 @@
       <c r="P49">
         <v>3000</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="7">
         <v>0.96</v>
       </c>
-      <c r="R49" s="10" t="s">
+      <c r="R49" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15900,10 +15920,10 @@
       <c r="P50">
         <v>1800</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="7">
         <v>0.96</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="R50" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15956,10 +15976,10 @@
       <c r="P51">
         <v>3000</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="7">
         <v>0.96</v>
       </c>
-      <c r="R51" s="10" t="s">
+      <c r="R51" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -15970,7 +15990,7 @@
       <c r="B52">
         <v>300</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>0.16</v>
       </c>
       <c r="D52">
@@ -16012,10 +16032,10 @@
       <c r="P52">
         <v>3000</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="7">
         <v>0.96</v>
       </c>
-      <c r="R52" s="10" t="s">
+      <c r="R52" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -16026,7 +16046,7 @@
       <c r="B53">
         <v>300</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>0.13</v>
       </c>
       <c r="D53">
@@ -16068,10 +16088,10 @@
       <c r="P53">
         <v>3000</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="7">
         <v>0.96</v>
       </c>
-      <c r="R53" s="10" t="s">
+      <c r="R53" s="9" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Prototypes/SCUM/CropCoeff.xlsx
+++ b/Prototypes/SCUM/CropCoeff.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="29715" windowHeight="20745" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workings" sheetId="6" r:id="rId1"/>
     <sheet name="CoreParams" sheetId="5" r:id="rId2"/>
     <sheet name="AllParams" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterate="1"/>
 </workbook>
 </file>
 
@@ -4926,23 +4926,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="133045632"/>
-        <c:axId val="133076096"/>
+        <c:axId val="48694784"/>
+        <c:axId val="48696320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133045632"/>
+        <c:axId val="48694784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133076096"/>
+        <c:crossAx val="48696320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133076096"/>
+        <c:axId val="48696320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,7 +4950,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133045632"/>
+        <c:crossAx val="48694784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4962,7 +4962,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10351,7 +10351,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <f t="shared" ref="B35:B66" si="16">X35-C35</f>
+        <f t="shared" ref="B35:B52" si="16">X35-C35</f>
         <v>563</v>
       </c>
       <c r="C35" s="5">
@@ -10435,7 +10435,7 @@
         <v>9.9330714907571532E-2</v>
       </c>
       <c r="AC35" s="5">
-        <f t="shared" ref="AC35:AC66" si="17">(AA35-AB35)*(H35)</f>
+        <f t="shared" ref="AC35:AC52" si="17">(AA35-AB35)*(H35)</f>
         <v>9.3867525587655085E-2</v>
       </c>
       <c r="AD35" s="5">
@@ -13115,10 +13115,10 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14320,7 +14320,7 @@
         <v>0.45</v>
       </c>
       <c r="F22">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -14376,7 +14376,7 @@
         <v>0.5</v>
       </c>
       <c r="F23">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -14488,7 +14488,7 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -14544,7 +14544,7 @@
         <v>0.90399999999999991</v>
       </c>
       <c r="F26">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -14600,7 +14600,7 @@
         <v>0.91099999999999992</v>
       </c>
       <c r="F27">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G27">
         <v>0.1</v>
